--- a/LAB/Disease_detection/hyperparameter_tuning_results_dataset2.xlsx
+++ b/LAB/Disease_detection/hyperparameter_tuning_results_dataset2.xlsx
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'C': 1.0, 'solver': 'newton-cg'}</t>
+          <t>{'C': 100.0, 'solver': 'sag'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7245475827760997</v>
+        <v>0.7276658484517931</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.728756621328239</v>
+        <v>0.729744893757785</v>
       </c>
     </row>
     <row r="4">
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'max_depth': 10, 'min_samples_split': 10, 'n_estimators': 200}</t>
+          <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 50}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7344258688729087</v>
+        <v>0.7346514640225005</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100}</t>
+          <t>{'learning_rate': 0.01, 'max_depth': 5, 'n_estimators': 300}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7339104764441918</v>
+        <v>0.734651448893054</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7245475827760997</v>
+        <v>0.7276658484517929</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.728756621328239</v>
+        <v>0.7297656600037306</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.734769456139696</v>
+        <v>0.7353375584834156</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100}</t>
+          <t>{'learning_rate': 0.01, 'max_depth': 5, 'n_estimators': 300}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7338890010871642</v>
+        <v>0.734672238913844</v>
       </c>
     </row>
   </sheetData>

--- a/LAB/Disease_detection/hyperparameter_tuning_results_dataset2.xlsx
+++ b/LAB/Disease_detection/hyperparameter_tuning_results_dataset2.xlsx
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 50}</t>
+          <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 200}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7346514640225005</v>
+        <v>0.7354207012757799</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.734651448893054</v>
+        <v>0.734630658872264</v>
       </c>
     </row>
     <row r="6">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7297656600037306</v>
+        <v>0.729744893757785</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 200}</t>
+          <t>{'max_depth': 10, 'min_samples_split': 10, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7353375584834156</v>
+        <v>0.7351919937562935</v>
       </c>
     </row>
     <row r="9">
